--- a/biology/Botanique/Brachetto_d'Acqui_spumante/Brachetto_d'Acqui_spumante.xlsx
+++ b/biology/Botanique/Brachetto_d'Acqui_spumante/Brachetto_d'Acqui_spumante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brachetto_d%27Acqui_spumante</t>
+          <t>Brachetto_d'Acqui_spumante</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Brachetto d'Acqui spumante est un vin effervescent  rouge doux italien de la région Piémont doté d'une appellation DOCG  depuis le 24 avril 1996. Seuls ont droit à la DOCG les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Brachetto_d%27Acqui_spumante</t>
+          <t>Brachetto_d'Acqui_spumante</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province d'Asti dans les communes de Nizza Monferrato, Vesime, Cessole, Loazzolo, Bubbio, Monastero Bormida, Rocchetta Palafea, Montabone, Fontanile, Mombaruzzo, Maranzana, Quaranti, Castel Boglione, Castel Rocchero, Sessame, Castelletto Molina, Calamandrana, Cassinasco ainsi que Acqui Terme, Terzo, Bistagno, Alice Bel Colle, Strevi, Ricaldone, Cassine et Visone en  province d'Alexandrie. La superficie planté est de 62 hectares. Le vignoble est travaillé par 202 vignerons.
 Voir aussi l’article Brachetto d'Acqui.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brachetto_d%27Acqui_spumante</t>
+          <t>Brachetto_d'Acqui_spumante</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis moyennement intense tendant vers un rouge grenat ou un rosé
 odeur :  délicat, caractéristiques avec des arômes de roses
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Brachetto_d%27Acqui_spumante</t>
+          <t>Brachetto_d'Acqui_spumante</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Brachetto_d%27Acqui_spumante</t>
+          <t>Brachetto_d'Acqui_spumante</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -612,7 +632,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Brachetto_d%27Acqui_spumante</t>
+          <t>Brachetto_d'Acqui_spumante</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles </t>
